--- a/top_terms_by_category.xlsx
+++ b/top_terms_by_category.xlsx
@@ -34,64 +34,64 @@
     <t>technology</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>economy</t>
+  </si>
+  <si>
     <t>inflation</t>
   </si>
   <si>
-    <t>rate</t>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>rates</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>fed</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
-    <t>bank</t>
-  </si>
-  <si>
-    <t>government</t>
-  </si>
-  <si>
-    <t>fed</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>rates</t>
-  </si>
-  <si>
-    <t>boe</t>
-  </si>
-  <si>
-    <t>economy</t>
-  </si>
-  <si>
     <t>eu</t>
   </si>
   <si>
+    <t>harris</t>
+  </si>
+  <si>
+    <t>president</t>
+  </si>
+  <si>
+    <t>election</t>
+  </si>
+  <si>
+    <t>adams</t>
+  </si>
+  <si>
     <t>ukraine</t>
   </si>
   <si>
-    <t>election</t>
-  </si>
-  <si>
-    <t>court</t>
-  </si>
-  <si>
-    <t>harris</t>
-  </si>
-  <si>
-    <t>president</t>
-  </si>
-  <si>
-    <t>ishiba</t>
-  </si>
-  <si>
-    <t>russian</t>
-  </si>
-  <si>
-    <t>gun</t>
-  </si>
-  <si>
-    <t>home</t>
+    <t>vote</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>administration</t>
+  </si>
+  <si>
+    <t>sheinbaum</t>
   </si>
   <si>
     <t>ai</t>
@@ -103,22 +103,22 @@
     <t>google</t>
   </si>
   <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>asml</t>
+  </si>
+  <si>
+    <t>nvidia</t>
+  </si>
+  <si>
+    <t>intelligence</t>
+  </si>
+  <si>
     <t>openai</t>
   </si>
   <si>
-    <t>digital</t>
-  </si>
-  <si>
     <t>dish</t>
-  </si>
-  <si>
-    <t>intelligence</t>
-  </si>
-  <si>
-    <t>revenue</t>
-  </si>
-  <si>
-    <t>billion</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.4690674804573294</v>
+        <v>0.7405640125082276</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -512,7 +512,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.4242255624448507</v>
+        <v>0.6671682610419009</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -523,7 +523,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.4103769831020789</v>
+        <v>0.5354316337316006</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -534,7 +534,7 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.3819617410437938</v>
+        <v>0.5330785612322315</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -545,7 +545,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.3771972535834179</v>
+        <v>0.4982785221707052</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>0.3750289577467277</v>
+        <v>0.4924102593975781</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -567,7 +567,7 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>0.3647603797477235</v>
+        <v>0.4596903386985605</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -578,7 +578,7 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>0.3628843205643483</v>
+        <v>0.4526877307541191</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -589,7 +589,7 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>0.3528038159298773</v>
+        <v>0.4414662958822931</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -600,7 +600,7 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>0.3352394341956379</v>
+        <v>0.4216938484993112</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -611,7 +611,7 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>0.6482812626780909</v>
+        <v>0.7292041841468924</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -622,7 +622,7 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>0.5400598591265221</v>
+        <v>0.6140444808375208</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -633,7 +633,7 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>0.4959015154126171</v>
+        <v>0.5960686481079597</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -644,7 +644,7 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>0.4003219644335805</v>
+        <v>0.4855135884917069</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -655,7 +655,7 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>0.3885339606112135</v>
+        <v>0.471916409870867</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -666,7 +666,7 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>0.3503791907105119</v>
+        <v>0.4603057848314788</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -677,7 +677,7 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>0.3400926466024526</v>
+        <v>0.3614703538134868</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -688,7 +688,7 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>0.3317359387446751</v>
+        <v>0.346884491943558</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -699,7 +699,7 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>0.3165018096876369</v>
+        <v>0.3462524639685153</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -710,7 +710,7 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>0.3130661086318172</v>
+        <v>0.3456636081762111</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -721,7 +721,7 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>0.9996040996155491</v>
+        <v>1.027382784560325</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -732,7 +732,7 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>0.6605990786094432</v>
+        <v>0.9448789879691316</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -743,7 +743,7 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>0.3628403537729861</v>
+        <v>0.5402104651952397</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -754,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <v>0.3596691268475267</v>
+        <v>0.4390437965262556</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -765,7 +765,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>0.3571826007370601</v>
+        <v>0.418457905957566</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -776,7 +776,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>0.3449504138288243</v>
+        <v>0.3746721158123438</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -787,7 +787,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>0.3224756447727194</v>
+        <v>0.3743834983786696</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -798,7 +798,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>0.3096967210845972</v>
+        <v>0.3608776459585215</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -809,7 +809,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>0.3037054399400771</v>
+        <v>0.3536134973136029</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -820,7 +820,7 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>0.3002411326026516</v>
+        <v>0.3374361914981858</v>
       </c>
     </row>
   </sheetData>

--- a/top_terms_by_category.xlsx
+++ b/top_terms_by_category.xlsx
@@ -34,36 +34,36 @@
     <t>technology</t>
   </si>
   <si>
+    <t>rate</t>
+  </si>
+  <si>
     <t>bank</t>
   </si>
   <si>
-    <t>rate</t>
-  </si>
-  <si>
     <t>economy</t>
   </si>
   <si>
     <t>inflation</t>
   </si>
   <si>
+    <t>rates</t>
+  </si>
+  <si>
     <t>growth</t>
   </si>
   <si>
-    <t>rates</t>
+    <t>oil</t>
   </si>
   <si>
     <t>debt</t>
   </si>
   <si>
-    <t>tax</t>
+    <t>reeves</t>
   </si>
   <si>
     <t>fed</t>
   </si>
   <si>
-    <t>oil</t>
-  </si>
-  <si>
     <t>eu</t>
   </si>
   <si>
@@ -76,24 +76,24 @@
     <t>election</t>
   </si>
   <si>
+    <t>ukraine</t>
+  </si>
+  <si>
+    <t>vote</t>
+  </si>
+  <si>
     <t>adams</t>
   </si>
   <si>
-    <t>ukraine</t>
-  </si>
-  <si>
-    <t>vote</t>
-  </si>
-  <si>
-    <t>nuclear</t>
-  </si>
-  <si>
-    <t>administration</t>
-  </si>
-  <si>
     <t>sheinbaum</t>
   </si>
   <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>iran</t>
+  </si>
+  <si>
     <t>ai</t>
   </si>
   <si>
@@ -109,16 +109,16 @@
     <t>asml</t>
   </si>
   <si>
+    <t>openai</t>
+  </si>
+  <si>
+    <t>intelligence</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
     <t>nvidia</t>
-  </si>
-  <si>
-    <t>intelligence</t>
-  </si>
-  <si>
-    <t>openai</t>
-  </si>
-  <si>
-    <t>dish</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.7405640125082276</v>
+        <v>0.6415295531716572</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -512,7 +512,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.6671682610419009</v>
+        <v>0.5962742732696267</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -523,7 +523,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.5354316337316006</v>
+        <v>0.4946625137948602</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -534,7 +534,7 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.5330785612322315</v>
+        <v>0.4676053088971995</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -545,7 +545,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.4982785221707052</v>
+        <v>0.4578592034787562</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>0.4924102593975781</v>
+        <v>0.4439971236029382</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -567,7 +567,7 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>0.4596903386985605</v>
+        <v>0.4156911130830827</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -578,7 +578,7 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>0.4526877307541191</v>
+        <v>0.3818465632379081</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -589,7 +589,7 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>0.4414662958822931</v>
+        <v>0.3781885725823187</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -600,7 +600,7 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>0.4216938484993112</v>
+        <v>0.3668677167928494</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -611,7 +611,7 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>0.7292041841468924</v>
+        <v>0.646183863304744</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -622,7 +622,7 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>0.6140444808375208</v>
+        <v>0.608088022782601</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -633,7 +633,7 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>0.5960686481079597</v>
+        <v>0.5717555261578593</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -644,7 +644,7 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>0.4855135884917069</v>
+        <v>0.4975954046950689</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -655,7 +655,7 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>0.471916409870867</v>
+        <v>0.4742696499385962</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -666,7 +666,7 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>0.4603057848314788</v>
+        <v>0.3617251868337755</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -677,7 +677,7 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>0.3614703538134868</v>
+        <v>0.3369604761807304</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -688,7 +688,7 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>0.346884491943558</v>
+        <v>0.3361818396759946</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -699,7 +699,7 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>0.3462524639685153</v>
+        <v>0.3338748261202583</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -710,7 +710,7 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>0.3456636081762111</v>
+        <v>0.3295339086081862</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -721,7 +721,7 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>1.027382784560325</v>
+        <v>0.9957614326429972</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -732,7 +732,7 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>0.9448789879691316</v>
+        <v>0.8342874043622375</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -743,7 +743,7 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>0.5402104651952397</v>
+        <v>0.532786345711083</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -751,10 +751,10 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C25">
-        <v>0.4390437965262556</v>
+        <v>0.3747150661798169</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -762,10 +762,10 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>0.418457905957566</v>
+        <v>0.3653870749579575</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -773,10 +773,10 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27">
-        <v>0.3746721158123438</v>
+        <v>0.3534917123529179</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -784,10 +784,10 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>0.3743834983786696</v>
+        <v>0.3519222132266364</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -798,7 +798,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>0.3608776459585215</v>
+        <v>0.3369667308484401</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -809,7 +809,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>0.3536134973136029</v>
+        <v>0.3332701035879983</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -820,7 +820,7 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>0.3374361914981858</v>
+        <v>0.3241928145857531</v>
       </c>
     </row>
   </sheetData>
